--- a/biology/Botanique/Ribes_alpinum/Ribes_alpinum.xlsx
+++ b/biology/Botanique/Ribes_alpinum/Ribes_alpinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Groseillier des Alpes (Ribes alpinum) est un arbuste de la famille des Grossulariacées originaire d'Europe centrale ou boréale.
 </t>
@@ -511,7 +523,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Un synonyme est signalé : Ribes dioicum Moench (1794)
 Des sous-espèces et variétés botaniques sont reconnues :
@@ -545,13 +559,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste caduc, pouvant atteindre 2 à 3 m de haut.
 Les feuilles sont tri ou pentalobées et irrégulièrement crénelées-dentelées, presque glabres. Le pétiole des feuilles est plus court que le limbe.
-Les fleurs sont en grappes plus ou moins dressées[1], de couleur verte ou vert-jaunâtre. Le calice, en cloche, est formé de sépales ovales, trois à cinq fois plus longs que les pétales.
+Les fleurs sont en grappes plus ou moins dressées, de couleur verte ou vert-jaunâtre. Le calice, en cloche, est formé de sépales ovales, trois à cinq fois plus longs que les pétales.
 Les fruits sont rouges à maturité, en grappe et peuvent atteindre 0,5 cm de diamètre. Ils sont fades mais comestibles.
-Cette espèce compte 16 chromosomes[2].
+Cette espèce compte 16 chromosomes.
 			Variété 'Aureum' - floraison
 			Variété 'Aureum' - floraison
 			Fleurs
@@ -585,11 +601,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbuste est originaire d'Europe centrale et boréale. Il est présent dans tout l'est de la France, dans le Massif central et dans le pourtour méditerranéen. Il est absent dans l'ouest, sur toute la façade Atlantique et de la Manche.
 Il croît en habitat forestier ou semi-forestier ou en ripisylve, en milieu relativement humide.
-En Suisse, il pousse dans les forêts et buissons, aux étages montagnard et subalpin, c'est une plante pionnière; il est parfois cultivé[1].
+En Suisse, il pousse dans les forêts et buissons, aux étages montagnard et subalpin, c'est une plante pionnière; il est parfois cultivé.
 </t>
         </is>
       </c>
@@ -618,7 +636,9 @@
           <t>Utilisation et culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est assez couramment utilisé en plante ornementale, en isolé ou en haie, en situation ensoleillée ou ombragée. Des variétés horticoles ont été créées dont :
 Ribes alpinum 'Aureum'
